--- a/Documentation/SampleTestData.xlsx
+++ b/Documentation/SampleTestData.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nishad\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21AEBD7-9E69-4A5B-BDA2-D6944FF3E212}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C7117A8F-1304-4187-B56B-AD966FC84CE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{994061CF-068D-4B2F-8382-AC49B7ACC144}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="20745" windowHeight="13905" xr2:uid="{994061CF-068D-4B2F-8382-AC49B7ACC144}"/>
   </bookViews>
   <sheets>
     <sheet name="TestScenarios" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -97,6 +93,87 @@
     <t>RetunCode_422</t>
   </si>
   <si>
+    <t>Send request to "https://company.clearbit.com/v2/companies/find" with,
+authorization key="sk_1e7aa20d9a2e9962b9374949c59a9fab"
+domain="!"</t>
+  </si>
+  <si>
+    <t>Validation of Returned data format</t>
+  </si>
+  <si>
+    <t>DataFormat_JSONPathValidation</t>
+  </si>
+  <si>
+    <t>Response should pass JSONPath Schema validation</t>
+  </si>
+  <si>
+    <t>Send request to "https://company.clearbit.com/v2/companies/find" with,
+authorization key="sk_1e7aa20d9a2e9962b9374949c59a9fab"
+domain="facebook.com"
+Validate the Response received against JSON Path Schema.</t>
+  </si>
+  <si>
+    <t>Send request to "https://company.clearbit.com/v2/companies/find" with,
+authorization key="sk_1e7aa20d9a2e9962b9374949c59a9fab"
+domain="hp.com"
+Validate the Response received against JSON Path Schema.</t>
+  </si>
+  <si>
+    <t>Validation of Returned data Values</t>
+  </si>
+  <si>
+    <t>Values_facebook</t>
+  </si>
+  <si>
+    <t>Send request to "https://company.clearbit.com/v2/companies/find" with,
+authorization key="sk_1e7aa20d9a2e9962b9374949c59a9fab"
+domain="facebook.com"
+Extract the response and check for values of name, legalName,foundedYear,location tags</t>
+  </si>
+  <si>
+    <t>Values should match
+    "name": "Facebook",
+    "legalName": "Facebook Inc.",
+    "foundedYear": 2004,
+    "location": "1601 Willow Rd, Menlo Park, CA 94025-1452, US"</t>
+  </si>
+  <si>
+    <t>Values_twitter</t>
+  </si>
+  <si>
+    <t>Send request to "https://company.clearbit.com/v2/companies/find" with,
+authorization key="sk_1e7aa20d9a2e9962b9374949c59a9fab"
+domain="twitter.com"
+Extract the response and check for values of name, legalName,foundedYear,location tags</t>
+  </si>
+  <si>
+    <t>Values should match
+    "name": "Twitter",
+    "legalName": "Twitter Inc.",
+    "foundedYear": 2005,
+    "location": "1355 Market St #900, San Francisco, CA 94103, USA",</t>
+  </si>
+  <si>
+    <t>Validation of Additional Parameters</t>
+  </si>
+  <si>
+    <t>Parameter_companyName</t>
+  </si>
+  <si>
+    <t>Send request to "https://company.clearbit.com/v2/companies/find" with,
+authorization key="sk_1e7aa20d9a2e9962b9374949c59a9fab"
+domain="twitter.com"
+copmany_name="Twitter"
+linkedin="company/twitter"
+twitter="Twitter"
+facebook="twitterinc"
+Extract the response and check for values of name</t>
+  </si>
+  <si>
+    <t>Value should match
+    "name": "twitter"</t>
+  </si>
+  <si>
     <t>Response received should be:
 {
     "error": {
@@ -104,7 +181,7 @@
         "message": "Invalid API key provided"
     }
 }
-Also, Heaser response code should be 401</t>
+Also, Header response code should be 401</t>
   </si>
   <si>
     <t>Response received should be:
@@ -114,88 +191,7 @@
         "message": "Authentication is required for this action. Sign up at https://clearbit.com"
     }
 }
-Also, Heaser response code should be 401</t>
-  </si>
-  <si>
-    <t>Send request to "https://company.clearbit.com/v2/companies/find" with,
-authorization key="sk_1e7aa20d9a2e9962b9374949c59a9fab"
-domain="!"</t>
-  </si>
-  <si>
-    <t>Validation of Returned data format</t>
-  </si>
-  <si>
-    <t>DataFormat_JSONPathValidation</t>
-  </si>
-  <si>
-    <t>Response should pass JSONPath Schema validation</t>
-  </si>
-  <si>
-    <t>Send request to "https://company.clearbit.com/v2/companies/find" with,
-authorization key="sk_1e7aa20d9a2e9962b9374949c59a9fab"
-domain="facebook.com"
-Validate the Response received against JSON Path Schema.</t>
-  </si>
-  <si>
-    <t>Send request to "https://company.clearbit.com/v2/companies/find" with,
-authorization key="sk_1e7aa20d9a2e9962b9374949c59a9fab"
-domain="hp.com"
-Validate the Response received against JSON Path Schema.</t>
-  </si>
-  <si>
-    <t>Validation of Returned data Values</t>
-  </si>
-  <si>
-    <t>Values_facebook</t>
-  </si>
-  <si>
-    <t>Send request to "https://company.clearbit.com/v2/companies/find" with,
-authorization key="sk_1e7aa20d9a2e9962b9374949c59a9fab"
-domain="facebook.com"
-Extract the response and check for values of name, legalName,foundedYear,location tags</t>
-  </si>
-  <si>
-    <t>Values should match
-    "name": "Facebook",
-    "legalName": "Facebook Inc.",
-    "foundedYear": 2004,
-    "location": "1601 Willow Rd, Menlo Park, CA 94025-1452, US"</t>
-  </si>
-  <si>
-    <t>Values_twitter</t>
-  </si>
-  <si>
-    <t>Send request to "https://company.clearbit.com/v2/companies/find" with,
-authorization key="sk_1e7aa20d9a2e9962b9374949c59a9fab"
-domain="twitter.com"
-Extract the response and check for values of name, legalName,foundedYear,location tags</t>
-  </si>
-  <si>
-    <t>Values should match
-    "name": "Twitter",
-    "legalName": "Twitter Inc.",
-    "foundedYear": 2005,
-    "location": "1355 Market St #900, San Francisco, CA 94103, USA",</t>
-  </si>
-  <si>
-    <t>Validation of Additional Parameters</t>
-  </si>
-  <si>
-    <t>Parameter_companyName</t>
-  </si>
-  <si>
-    <t>Send request to "https://company.clearbit.com/v2/companies/find" with,
-authorization key="sk_1e7aa20d9a2e9962b9374949c59a9fab"
-domain="twitter.com"
-copmany_name="Twitter"
-linkedin="company/twitter"
-twitter="Twitter"
-facebook="twitterinc"
-Extract the response and check for values of name</t>
-  </si>
-  <si>
-    <t>Value should match
-    "name": "twitter"</t>
+Also, Header response code should be 401</t>
   </si>
 </sst>
 </file>
@@ -254,14 +250,14 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -579,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47747E75-3FE5-48B6-A924-4C4651E900CF}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -601,39 +597,39 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>20</v>
+      <c r="C3" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
+      <c r="C4" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
@@ -641,20 +637,20 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -662,10 +658,10 @@
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -673,10 +669,10 @@
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -684,87 +680,87 @@
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>25</v>
+      <c r="C12" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="C13" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="3" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" ht="114" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
